--- a/文件/字段.xlsx
+++ b/文件/字段.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="设备" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="客户" sheetId="3" r:id="rId3"/>
     <sheet name="员工" sheetId="4" r:id="rId4"/>
     <sheet name="耗材" sheetId="5" r:id="rId5"/>
-    <sheet name="用户" sheetId="6" r:id="rId6"/>
-    <sheet name="日志" sheetId="7" r:id="rId7"/>
+    <sheet name="日志" sheetId="7" r:id="rId6"/>
+    <sheet name="用户" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>所在部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,30 @@
   </si>
   <si>
     <t>耗材名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfzh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hcdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmhth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -795,26 +819,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -826,10 +850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -915,6 +939,14 @@
       </c>
       <c r="B10" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +960,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -967,26 +999,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -998,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1081,6 +1113,14 @@
         <v>92</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1149,6 +1189,14 @@
         <v>50</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1156,42 +1204,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1249,4 +1261,40 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>